--- a/data/Profile1.xlsx
+++ b/data/Profile1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tommydang/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tommydang/Desktop/github/Soil/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="47960" windowHeight="27620" tabRatio="500"/>
+    <workbookView xWindow="14040" yWindow="8460" windowWidth="47960" windowHeight="27620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1489,11 +1489,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GE146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:GE146"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:Y1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="15" max="15" width="32.33203125" customWidth="1"/>
+    <col min="20" max="20" width="46.33203125" customWidth="1"/>
+    <col min="23" max="23" width="30.1640625" customWidth="1"/>
+    <col min="27" max="27" width="26.33203125" customWidth="1"/>
+    <col min="28" max="28" width="22.83203125" customWidth="1"/>
+    <col min="29" max="29" width="10.83203125" hidden="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:187" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
